--- a/columnas_csv.xlsx
+++ b/columnas_csv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="210">
   <si>
     <t>id</t>
   </si>
@@ -32,9 +32,6 @@
     <t>host_id</t>
   </si>
   <si>
-    <t>fecha de los datos</t>
-  </si>
-  <si>
     <t>id de la propiedad</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>propietario es superhost</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>No, es texto escrito por el propietario</t>
   </si>
   <si>
@@ -305,9 +299,6 @@
     <t>ciudad</t>
   </si>
   <si>
-    <t>ciudad - sirve para quitar errores de los datos</t>
-  </si>
-  <si>
     <t>código postal</t>
   </si>
   <si>
@@ -332,9 +323,6 @@
     <t>número de huéspedes</t>
   </si>
   <si>
-    <t>número de baños, 0.5</t>
-  </si>
-  <si>
     <t>número de habitaciones</t>
   </si>
   <si>
@@ -344,9 +332,6 @@
     <t>tipo de camas</t>
   </si>
   <si>
-    <t>condiciones del apartamento - predefinido por aibnb</t>
-  </si>
-  <si>
     <t>metros cuadrados</t>
   </si>
   <si>
@@ -524,15 +509,6 @@
     <t>número de valoraciones en los últimos 12 meses</t>
   </si>
   <si>
-    <t>last twelve months</t>
-  </si>
-  <si>
-    <t>primera valoración</t>
-  </si>
-  <si>
-    <t>ultima valoración</t>
-  </si>
-  <si>
     <t>puntuación (0-100)</t>
   </si>
   <si>
@@ -573,13 +549,119 @@
   </si>
   <si>
     <t>número de valoraciones al mês</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>No
+Podrá ser útil para ver que keywords funcionan mejor</t>
+  </si>
+  <si>
+    <t>Ver el número de propiedades y cuales se repiten a lo largo del tiempo</t>
+  </si>
+  <si>
+    <t>Referencia temporal</t>
+  </si>
+  <si>
+    <t>No, repite la misma información de las dos anteriores</t>
+  </si>
+  <si>
+    <t>fecha de extracción de los datos</t>
+  </si>
+  <si>
+    <t>No, tiene poca/ninguna información</t>
+  </si>
+  <si>
+    <t>Si, son campos predeterminados por airbnb</t>
+  </si>
+  <si>
+    <t>No, es un url</t>
+  </si>
+  <si>
+    <t>Si, permite ver el número de alquileres por propietario</t>
+  </si>
+  <si>
+    <t>No, pero puede ser útil para consultar algunos ejemplos</t>
+  </si>
+  <si>
+    <t>Si, permite saber el tiempo que lleva en airbnb</t>
+  </si>
+  <si>
+    <t>Si, se puede comparar com la localización de los pisos</t>
+  </si>
+  <si>
+    <t>Si, permite saber la disponibilidad</t>
+  </si>
+  <si>
+    <t>Si, permite saber el tipo de host</t>
+  </si>
+  <si>
+    <t>Si, permite saber el barrio donde se encuentra</t>
+  </si>
+  <si>
+    <t>No, pasó a ser obligatorio. Podría influir antes?</t>
+  </si>
+  <si>
+    <t>Si, pero podrá no tener la información completa</t>
+  </si>
+  <si>
+    <t>Si, permite saber la ciudad y validar datos</t>
+  </si>
+  <si>
+    <t>No, por la ciudad podemos tener esta información</t>
+  </si>
+  <si>
+    <t>Si, da la localización específica?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>número de baños</t>
+  </si>
+  <si>
+    <t>Si (0.5 significa que no tiene ducha/bañera)</t>
+  </si>
+  <si>
+    <t>condiciones del apartamento</t>
+  </si>
+  <si>
+    <t>No? Hay muchos nulls?</t>
+  </si>
+  <si>
+    <t>Si, precio minimo en el momento del webscrapping?</t>
+  </si>
+  <si>
+    <t>Si?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No? </t>
+  </si>
+  <si>
+    <t>fecha de la primera valoración</t>
+  </si>
+  <si>
+    <t>fecha de la última valoración</t>
+  </si>
+  <si>
+    <t>Entender como está hecha la puntuación</t>
+  </si>
+  <si>
+    <t>No?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,8 +669,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +687,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,10 +709,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,912 +997,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+      <c r="A1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>183</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>92</v>
+        <v>64</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" t="s">
-        <v>95</v>
+        <v>69</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>77</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>5</v>
       </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="B62" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="B63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>115</v>
-      </c>
       <c r="B64" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>157</v>
+        <v>116</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B86" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>132</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="C91" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="C93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>135</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="C94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>137</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="C96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="C97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>139</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>140</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>143</v>
-      </c>
-      <c r="B92" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>145</v>
-      </c>
-      <c r="B94" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>146</v>
-      </c>
-      <c r="B95" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>148</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>150</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>151</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>152</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>182</v>
+      <c r="C102" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/columnas_csv.xlsx
+++ b/columnas_csv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="216">
   <si>
     <t>id</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>tasa de limpieza</t>
-  </si>
-  <si>
-    <t>precio de cada persona</t>
   </si>
   <si>
     <t>número máximo de noches</t>
@@ -655,6 +652,27 @@
   </si>
   <si>
     <t>No?</t>
+  </si>
+  <si>
+    <t>Número máximo de huéspedes en que el precio sigue fijo</t>
+  </si>
+  <si>
+    <t>precio de cada persona extra al guests_included</t>
+  </si>
+  <si>
+    <t>Número de propiedades que tiene el huésped listadas en airbnb</t>
+  </si>
+  <si>
+    <t>Total de anuncios que tiene el propietario en airbnb para la ciudad en análisis</t>
+  </si>
+  <si>
+    <t>Total de anuncios de piso completo que tiene el propietario para la ciudad en análisis</t>
+  </si>
+  <si>
+    <t>Total de anuncios de habitaciones privadas que tiene el propietario para la ciudad en análisis</t>
+  </si>
+  <si>
+    <t>Total de anuncios de habitaciones compartidas que tiene el propietario para la ciudad en análisis</t>
   </si>
 </sst>
 </file>
@@ -1000,25 +1018,25 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1029,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1037,10 +1055,10 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1051,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1062,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1073,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,7 +1102,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -1098,7 +1116,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -1145,7 +1163,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1156,7 +1174,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1178,7 +1196,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1189,10 +1207,10 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1200,10 +1218,10 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1211,10 +1229,10 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1222,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1233,10 +1251,10 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1244,10 +1262,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1255,10 +1273,10 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1266,10 +1284,10 @@
         <v>45</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1277,10 +1295,10 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1288,10 +1306,10 @@
         <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1299,10 +1317,10 @@
         <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1310,10 +1328,10 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1321,10 +1339,10 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1332,26 +1350,32 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1367,7 +1391,7 @@
         <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,7 +1410,7 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,7 +1421,7 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1408,7 +1432,7 @@
         <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1427,7 +1451,7 @@
         <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1438,7 +1462,7 @@
         <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1449,7 +1473,7 @@
         <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1476,7 +1500,7 @@
         <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1487,7 +1511,7 @@
         <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1498,7 +1522,7 @@
         <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1509,7 +1533,7 @@
         <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1550,10 +1574,10 @@
         <v>76</v>
       </c>
       <c r="B51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="s">
         <v>199</v>
-      </c>
-      <c r="C51" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1586,7 +1610,7 @@
         <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1594,10 +1618,10 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1608,7 +1632,7 @@
         <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1619,7 +1643,7 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1630,7 +1654,7 @@
         <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1641,7 +1665,7 @@
         <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1670,8 +1694,11 @@
       <c r="A62" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>86</v>
+      <c r="B62" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1679,7 +1706,7 @@
         <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="C63" t="s">
         <v>51</v>
@@ -1690,7 +1717,7 @@
         <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
         <v>51</v>
@@ -1701,7 +1728,7 @@
         <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
         <v>51</v>
@@ -1747,7 +1774,7 @@
         <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1758,7 +1785,7 @@
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1766,7 +1793,7 @@
         <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1782,10 +1809,10 @@
         <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1793,10 +1820,10 @@
         <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1804,10 +1831,10 @@
         <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1815,10 +1842,10 @@
         <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,10 +1853,10 @@
         <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1837,7 +1864,7 @@
         <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
         <v>51</v>
@@ -1848,7 +1875,7 @@
         <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
         <v>51</v>
@@ -1859,7 +1886,7 @@
         <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
         <v>51</v>
@@ -1870,7 +1897,7 @@
         <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C82" t="s">
         <v>51</v>
@@ -1881,10 +1908,10 @@
         <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1892,10 +1919,10 @@
         <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1903,10 +1930,10 @@
         <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1914,10 +1941,10 @@
         <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1925,10 +1952,10 @@
         <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1936,10 +1963,10 @@
         <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1950,7 +1977,7 @@
         <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1958,7 +1985,7 @@
         <v>135</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
         <v>51</v>
@@ -1969,10 +1996,10 @@
         <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1988,7 +2015,7 @@
         <v>138</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
         <v>51</v>
@@ -1999,10 +2026,10 @@
         <v>139</v>
       </c>
       <c r="B94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2010,10 +2037,10 @@
         <v>140</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2021,10 +2048,10 @@
         <v>141</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2032,54 +2059,42 @@
         <v>142</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" t="s">
-        <v>198</v>
+      <c r="B98" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>144</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C99" t="s">
-        <v>198</v>
+      <c r="B99" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>145</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" t="s">
-        <v>198</v>
+      <c r="B100" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>146</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C101" t="s">
-        <v>198</v>
+      <c r="B101" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2087,10 +2102,10 @@
         <v>147</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/columnas_csv.xlsx
+++ b/columnas_csv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="217">
   <si>
     <t>id</t>
   </si>
@@ -673,6 +673,9 @@
   </si>
   <si>
     <t>Total de anuncios de habitaciones compartidas que tiene el propietario para la ciudad en análisis</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2108,6 +2111,11 @@
         <v>203</v>
       </c>
     </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
